--- a/biology/Zoologie/Galaxias_vulgaris/Galaxias_vulgaris.xlsx
+++ b/biology/Zoologie/Galaxias_vulgaris/Galaxias_vulgaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Galaxias commun des rivières ou Galaxias du Canterbury (Galaxias vulgaris) est un poisson galaxiidae du genre Galaxias, on le trouve dans la région du Canterbury, en Nouvelle-Zélande.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Galaxias vulgaris est un petit poisson d'eau douce qui grandit généralement jusqu'à 100–115 mm de long. Il a une grande bouche avec une mâchoire inférieure un peu plus courte, les narines pincées et une face arrondi[1]. Les nageoires sont épaisses et charnues. Les nageoires pectorales sont petite et désactivé. Le pédoncule caudal long et mince, dont la longueur est d'environ 1,5 fois la largeur.
-Ils sont mouchetés de brun/gris/olive pour se camoufler sur le gravier de leur milieu de vie. Ils ont de très variable cerclage noir ou des marbrures le long de leur dos[2]. Cette pigmentation est tellement efficace comme camouflage, qu'il leur permet de sortir de leurs abris sous les rochers pour passer du temps dans des espaces plus ouvert de la rivière dans une relative sécurité[3]. Ils sont facilement confondus avec les "koaro" (Galaxias brevipinnis) qui n'ont les yeux que légèrement rapprochés, alors que les yeux de G. vulgaris sont plus larges et plus rapprochés l'une de l'autre ainsi ils sont plus visibles par une vue du dessus. Le Galaxias vulgaris peut encore se distinguer des autres espèces de Galaxias par leur pigmentation marbré moins dense, et un corps légèrement plus grand et plus large que les autres espèces.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Galaxias vulgaris est un petit poisson d'eau douce qui grandit généralement jusqu'à 100–115 mm de long. Il a une grande bouche avec une mâchoire inférieure un peu plus courte, les narines pincées et une face arrondi. Les nageoires sont épaisses et charnues. Les nageoires pectorales sont petite et désactivé. Le pédoncule caudal long et mince, dont la longueur est d'environ 1,5 fois la largeur.
+Ils sont mouchetés de brun/gris/olive pour se camoufler sur le gravier de leur milieu de vie. Ils ont de très variable cerclage noir ou des marbrures le long de leur dos. Cette pigmentation est tellement efficace comme camouflage, qu'il leur permet de sortir de leurs abris sous les rochers pour passer du temps dans des espaces plus ouvert de la rivière dans une relative sécurité. Ils sont facilement confondus avec les "koaro" (Galaxias brevipinnis) qui n'ont les yeux que légèrement rapprochés, alors que les yeux de G. vulgaris sont plus larges et plus rapprochés l'une de l'autre ainsi ils sont plus visibles par une vue du dessus. Le Galaxias vulgaris peut encore se distinguer des autres espèces de Galaxias par leur pigmentation marbré moins dense, et un corps légèrement plus grand et plus large que les autres espèces.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Galaxias vulgaris se trouve dans les rivières et les ruisseaux de la région du Canterbury sur l'Ile du Sud de Nouvelle-Zélande (à l'exception de la Péninsule de Banks) et dans l'est de l'Otago. La répartition va de faible à haute altitude dans les eaux peu profondes des rivières et des ruisseaux[4]. Il ne se trouve plus  beaucoup dans les systèmes fluviaux plus importants en raison de la prédation découlant de l'introduction d'espèces de truite Oncorhynchus mykiss (truite arc-en ciel), et Salmo trutta (truite)[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Galaxias vulgaris se trouve dans les rivières et les ruisseaux de la région du Canterbury sur l'Ile du Sud de Nouvelle-Zélande (à l'exception de la Péninsule de Banks) et dans l'est de l'Otago. La répartition va de faible à haute altitude dans les eaux peu profondes des rivières et des ruisseaux. Il ne se trouve plus  beaucoup dans les systèmes fluviaux plus importants en raison de la prédation découlant de l'introduction d'espèces de truite Oncorhynchus mykiss (truite arc-en ciel), et Salmo trutta (truite).
 </t>
         </is>
       </c>
